--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -843,7 +843,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1256,6 +1256,168 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>24AD086</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>JOSEPH SAM M</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>AI&amp;DS</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2025-05-29</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>18:40:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>24EC134</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>sakthi</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2025-05-29</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>18:41:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LAKSHAMAN</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>24AD109</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>AIDS</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2025-05-29</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>18:41:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>24AD114</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>MADHAN S</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>AIDS</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2025-05-29</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>18:41:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>24EC123</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>sri</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2025-05-29</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>18:41:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Kanika K</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>24AD091</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>AIDS</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2025-05-29</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>18:44:57</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
